--- a/biology/Botanique/Begonia_grandis/Begonia_grandis.xlsx
+++ b/biology/Botanique/Begonia_grandis/Begonia_grandis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia grandis est une espèce de plantes herbacées vivaces de la famille de la famille des Begoniaceae. Ce bégonia est originaire des sous-bois d'Asie orientale tempérée (Chine, Japon). L'espèce fait partie de la section Diploclinium ; elle a été décrite en 1791 par le botaniste suédois Jonas Carlsson Dryander (1748-1810). L'épithète spécifique, grandis, signifie « imposant, grandiose »[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia grandis est une espèce de plantes herbacées vivaces de la famille de la famille des Begoniaceae. Ce bégonia est originaire des sous-bois d'Asie orientale tempérée (Chine, Japon). L'espèce fait partie de la section Diploclinium ; elle a été décrite en 1791 par le botaniste suédois Jonas Carlsson Dryander (1748-1810). L'épithète spécifique, grandis, signifie « imposant, grandiose ».
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante produit en automne des bulbilles à l'aisselle de ses tiges qui lui permettent d'accélérer sa dissémination.
-Il existe de nombreuses sous-espèces et formes de cette espèce rustique, dont une variété à fleurs blanches : Begonia grandis var. alba. En france la plus connue est Begonia grandis ssp. evansiana[3].
+Il existe de nombreuses sous-espèces et formes de cette espèce rustique, dont une variété à fleurs blanches : Begonia grandis var. alba. En france la plus connue est Begonia grandis ssp. evansiana.
 			Vue d'ensemble
 			Fleurs femelles (gauche) et mâles (droite)
 			Tige et bulbilles
@@ -548,15 +562,17 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (27 octobre 2016)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (27 octobre 2016) :
 sous-espèce Begonia grandis subsp. grandis
 sous-espèce Begonia grandis subsp. holostyla Irmsch. (1939)
 variété Begonia grandis var. puberula Irmsch. (1939)
 sous-espèce Begonia grandis subsp. sinensis (A.DC.) Irmsch. (1939)
 variété Begonia grandis var. unialata Irmsch. (1939)
-Selon Tropicos                                           (27 octobre 2016)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (27 octobre 2016) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Begonia grandis subsp. evansiana (C. Andrews) Irmsch.
 sous-espèce Begonia grandis subsp. grandis
 sous-espèce Begonia grandis subsp. holostyla Irmsch.
@@ -592,7 +608,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Culture : Fiche Begonia vivace sur le site de la SNHF.</t>
         </is>
